--- a/data_year/zb/公共管理、社会保障及其他/人民检察院处理申诉案件情况/人民检察院申诉案件结案件数.xlsx
+++ b/data_year/zb/公共管理、社会保障及其他/人民检察院处理申诉案件情况/人民检察院申诉案件结案件数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y19"/>
+  <dimension ref="A1:Y13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -558,1270 +558,758 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>34</v>
+        <v>167</v>
       </c>
       <c r="C2" t="n">
-        <v>475</v>
+        <v>1754</v>
       </c>
       <c r="D2" t="n">
-        <v>131</v>
+        <v>229</v>
       </c>
       <c r="E2" t="n">
-        <v>1143</v>
+        <v>2704</v>
       </c>
       <c r="F2" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="G2" t="n">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="H2" t="n">
         <v>19</v>
       </c>
       <c r="I2" t="n">
-        <v>129</v>
+        <v>79</v>
       </c>
       <c r="J2" t="n">
-        <v>381</v>
+        <v>968</v>
       </c>
       <c r="K2" t="n">
-        <v>2676</v>
+        <v>5824</v>
       </c>
       <c r="L2" t="n">
-        <v>123</v>
+        <v>9</v>
       </c>
       <c r="M2" t="n">
-        <v>1789</v>
+        <v>5124</v>
       </c>
       <c r="N2" t="n">
-        <v>170</v>
+        <v>536</v>
       </c>
       <c r="O2" t="n">
-        <v>813</v>
+        <v>1192</v>
       </c>
       <c r="P2" t="n">
-        <v>89</v>
+        <v>2</v>
       </c>
       <c r="Q2" t="n">
-        <v>788</v>
+        <v>1720</v>
       </c>
       <c r="R2" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="S2" t="n">
-        <v>415</v>
+        <v>1886</v>
       </c>
       <c r="T2" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="U2" t="n">
-        <v>445</v>
+        <v>1067</v>
       </c>
       <c r="V2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="W2" t="n">
-        <v>141</v>
+        <v>451</v>
       </c>
       <c r="X2" t="n">
-        <v>504</v>
+        <v>977</v>
       </c>
       <c r="Y2" t="n">
-        <v>4465</v>
+        <v>10948</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>51</v>
+        <v>154</v>
       </c>
       <c r="C3" t="n">
-        <v>352</v>
+        <v>876</v>
       </c>
       <c r="D3" t="n">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="E3" t="n">
-        <v>1793</v>
+        <v>1586</v>
       </c>
       <c r="F3" t="n">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="G3" t="n">
-        <v>125</v>
+        <v>43</v>
       </c>
       <c r="H3" t="n">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="I3" t="n">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="J3" t="n">
-        <v>686</v>
+        <v>928</v>
       </c>
       <c r="K3" t="n">
-        <v>3518</v>
-      </c>
-      <c r="L3" t="n">
-        <v>100</v>
-      </c>
+        <v>3440</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
-        <v>1903</v>
+        <v>4820</v>
       </c>
       <c r="N3" t="n">
-        <v>366</v>
+        <v>562</v>
       </c>
       <c r="O3" t="n">
-        <v>1157</v>
-      </c>
-      <c r="P3" t="n">
-        <v>68</v>
-      </c>
+        <v>895</v>
+      </c>
+      <c r="P3" t="inlineStr"/>
       <c r="Q3" t="n">
-        <v>841</v>
-      </c>
-      <c r="R3" t="n">
-        <v>8</v>
-      </c>
+        <v>1599</v>
+      </c>
+      <c r="R3" t="inlineStr"/>
       <c r="S3" t="n">
-        <v>419</v>
-      </c>
-      <c r="T3" t="n">
-        <v>15</v>
-      </c>
+        <v>1865</v>
+      </c>
+      <c r="T3" t="inlineStr"/>
       <c r="U3" t="n">
-        <v>449</v>
-      </c>
-      <c r="V3" t="n">
-        <v>9</v>
-      </c>
+        <v>901</v>
+      </c>
+      <c r="V3" t="inlineStr"/>
       <c r="W3" t="n">
-        <v>194</v>
+        <v>455</v>
       </c>
       <c r="X3" t="n">
-        <v>786</v>
+        <v>928</v>
       </c>
       <c r="Y3" t="n">
-        <v>5421</v>
+        <v>8260</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>34</v>
+        <v>235</v>
       </c>
       <c r="C4" t="n">
-        <v>315</v>
+        <v>1332</v>
       </c>
       <c r="D4" t="n">
-        <v>159</v>
+        <v>232</v>
       </c>
       <c r="E4" t="n">
-        <v>1189</v>
+        <v>1814</v>
       </c>
       <c r="F4" t="n">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="G4" t="n">
-        <v>112</v>
+        <v>41</v>
       </c>
       <c r="H4" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I4" t="n">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="J4" t="n">
-        <v>498</v>
+        <v>1470</v>
       </c>
       <c r="K4" t="n">
-        <v>2442</v>
-      </c>
-      <c r="L4" t="n">
-        <v>102</v>
-      </c>
+        <v>4518</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
-        <v>1727</v>
+        <v>6819</v>
       </c>
       <c r="N4" t="n">
-        <v>256</v>
+        <v>979</v>
       </c>
       <c r="O4" t="n">
-        <v>744</v>
-      </c>
-      <c r="P4" t="n">
-        <v>66</v>
-      </c>
+        <v>1287</v>
+      </c>
+      <c r="P4" t="inlineStr"/>
       <c r="Q4" t="n">
-        <v>698</v>
-      </c>
-      <c r="R4" t="n">
-        <v>13</v>
-      </c>
+        <v>2318</v>
+      </c>
+      <c r="R4" t="inlineStr"/>
       <c r="S4" t="n">
-        <v>403</v>
-      </c>
-      <c r="T4" t="n">
-        <v>15</v>
-      </c>
+        <v>2709</v>
+      </c>
+      <c r="T4" t="inlineStr"/>
       <c r="U4" t="n">
-        <v>466</v>
-      </c>
-      <c r="V4" t="n">
-        <v>8</v>
-      </c>
+        <v>1116</v>
+      </c>
+      <c r="V4" t="inlineStr"/>
       <c r="W4" t="n">
-        <v>160</v>
+        <v>676</v>
       </c>
       <c r="X4" t="n">
-        <v>600</v>
+        <v>1470</v>
       </c>
       <c r="Y4" t="n">
-        <v>4169</v>
+        <v>11337</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>32</v>
+        <v>136</v>
       </c>
       <c r="C5" t="n">
-        <v>251</v>
+        <v>980</v>
       </c>
       <c r="D5" t="n">
-        <v>118</v>
+        <v>359</v>
       </c>
       <c r="E5" t="n">
-        <v>1050</v>
+        <v>3060</v>
       </c>
       <c r="F5" t="n">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="G5" t="n">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="H5" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I5" t="n">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="J5" t="n">
-        <v>390</v>
+        <v>1636</v>
       </c>
       <c r="K5" t="n">
-        <v>2005</v>
-      </c>
-      <c r="L5" t="n">
-        <v>99</v>
-      </c>
+        <v>6402</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
-        <v>1519</v>
+        <v>8866</v>
       </c>
       <c r="N5" t="n">
-        <v>204</v>
+        <v>1125</v>
       </c>
       <c r="O5" t="n">
-        <v>566</v>
-      </c>
-      <c r="P5" t="n">
-        <v>72</v>
-      </c>
+        <v>2263</v>
+      </c>
+      <c r="P5" t="inlineStr"/>
       <c r="Q5" t="n">
-        <v>575</v>
-      </c>
-      <c r="R5" t="n">
-        <v>9</v>
-      </c>
+        <v>3246</v>
+      </c>
+      <c r="R5" t="inlineStr"/>
       <c r="S5" t="n">
-        <v>379</v>
-      </c>
-      <c r="T5" t="n">
-        <v>15</v>
-      </c>
+        <v>3245</v>
+      </c>
+      <c r="T5" t="inlineStr"/>
       <c r="U5" t="n">
-        <v>420</v>
-      </c>
-      <c r="V5" t="n">
-        <v>3</v>
-      </c>
+        <v>1555</v>
+      </c>
+      <c r="V5" t="inlineStr"/>
       <c r="W5" t="n">
-        <v>145</v>
+        <v>820</v>
       </c>
       <c r="X5" t="n">
-        <v>489</v>
+        <v>1636</v>
       </c>
       <c r="Y5" t="n">
-        <v>3524</v>
+        <v>15268</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C6" t="n">
-        <v>256</v>
+        <v>666</v>
       </c>
       <c r="D6" t="n">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="E6" t="n">
-        <v>804</v>
+        <v>3114</v>
       </c>
       <c r="F6" t="n">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="G6" t="n">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="H6" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="I6" t="n">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="J6" t="n">
-        <v>406</v>
+        <v>633</v>
       </c>
       <c r="K6" t="n">
-        <v>1687</v>
+        <v>5245</v>
       </c>
       <c r="L6" t="n">
-        <v>69</v>
+        <v>1047</v>
       </c>
       <c r="M6" t="n">
-        <v>1210</v>
+        <v>9519</v>
       </c>
       <c r="N6" t="n">
-        <v>210</v>
+        <v>480</v>
       </c>
       <c r="O6" t="n">
-        <v>489</v>
+        <v>1366</v>
       </c>
       <c r="P6" t="n">
-        <v>53</v>
+        <v>419</v>
       </c>
       <c r="Q6" t="n">
-        <v>432</v>
+        <v>3231</v>
       </c>
       <c r="R6" t="n">
-        <v>4</v>
+        <v>337</v>
       </c>
       <c r="S6" t="n">
-        <v>361</v>
+        <v>2890</v>
       </c>
       <c r="T6" t="n">
-        <v>8</v>
+        <v>172</v>
       </c>
       <c r="U6" t="n">
-        <v>307</v>
+        <v>2509</v>
       </c>
       <c r="V6" t="n">
-        <v>4</v>
+        <v>119</v>
       </c>
       <c r="W6" t="n">
-        <v>110</v>
+        <v>889</v>
       </c>
       <c r="X6" t="n">
-        <v>475</v>
+        <v>1680</v>
       </c>
       <c r="Y6" t="n">
-        <v>2897</v>
+        <v>14764</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>225</v>
+        <v>102</v>
       </c>
       <c r="D7" t="n">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="E7" t="n">
-        <v>822</v>
+        <v>1632</v>
       </c>
       <c r="F7" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="G7" t="n">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="H7" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="J7" t="n">
-        <v>372</v>
+        <v>155</v>
       </c>
       <c r="K7" t="n">
-        <v>1607</v>
-      </c>
-      <c r="L7" t="n">
-        <v>43</v>
-      </c>
+        <v>1898</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
-        <v>1280</v>
+        <v>2948</v>
       </c>
       <c r="N7" t="n">
-        <v>202</v>
+        <v>51</v>
       </c>
       <c r="O7" t="n">
-        <v>481</v>
-      </c>
-      <c r="P7" t="n">
-        <v>24</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="P7" t="inlineStr"/>
       <c r="Q7" t="n">
-        <v>447</v>
-      </c>
-      <c r="R7" t="n">
-        <v>6</v>
-      </c>
+        <v>828</v>
+      </c>
+      <c r="R7" t="inlineStr"/>
       <c r="S7" t="n">
-        <v>386</v>
-      </c>
-      <c r="T7" t="n">
-        <v>10</v>
-      </c>
+        <v>870</v>
+      </c>
+      <c r="T7" t="inlineStr"/>
       <c r="U7" t="n">
-        <v>335</v>
-      </c>
-      <c r="V7" t="n">
-        <v>3</v>
-      </c>
+        <v>859</v>
+      </c>
+      <c r="V7" t="inlineStr"/>
       <c r="W7" t="n">
-        <v>112</v>
+        <v>307</v>
       </c>
       <c r="X7" t="n">
-        <v>415</v>
+        <v>155</v>
       </c>
       <c r="Y7" t="n">
-        <v>2887</v>
+        <v>4846</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="C8" t="n">
-        <v>362</v>
+        <v>112</v>
       </c>
       <c r="D8" t="n">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="E8" t="n">
-        <v>1014</v>
+        <v>1633</v>
       </c>
       <c r="F8" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="H8" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="J8" t="n">
-        <v>378</v>
+        <v>101</v>
       </c>
       <c r="K8" t="n">
-        <v>1910</v>
-      </c>
-      <c r="L8" t="n">
-        <v>32</v>
-      </c>
+        <v>1827</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
-        <v>1555</v>
+        <v>2895</v>
       </c>
       <c r="N8" t="n">
-        <v>229</v>
+        <v>12</v>
       </c>
       <c r="O8" t="n">
-        <v>462</v>
-      </c>
-      <c r="P8" t="n">
-        <v>21</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="P8" t="inlineStr"/>
       <c r="Q8" t="n">
-        <v>589</v>
-      </c>
-      <c r="R8" t="n">
-        <v>4</v>
-      </c>
+        <v>783</v>
+      </c>
+      <c r="R8" t="inlineStr"/>
       <c r="S8" t="n">
-        <v>445</v>
-      </c>
-      <c r="T8" t="n">
-        <v>6</v>
-      </c>
+        <v>771</v>
+      </c>
+      <c r="T8" t="inlineStr"/>
       <c r="U8" t="n">
-        <v>397</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1</v>
-      </c>
+        <v>875</v>
+      </c>
+      <c r="V8" t="inlineStr"/>
       <c r="W8" t="n">
-        <v>124</v>
+        <v>321</v>
       </c>
       <c r="X8" t="n">
-        <v>410</v>
+        <v>101</v>
       </c>
       <c r="Y8" t="n">
-        <v>3465</v>
+        <v>4722</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>167</v>
+        <v>11</v>
       </c>
       <c r="C9" t="n">
-        <v>1754</v>
+        <v>115</v>
       </c>
       <c r="D9" t="n">
-        <v>229</v>
+        <v>146</v>
       </c>
       <c r="E9" t="n">
-        <v>2704</v>
-      </c>
-      <c r="F9" t="n">
-        <v>17</v>
-      </c>
-      <c r="G9" t="n">
-        <v>95</v>
-      </c>
+        <v>2078</v>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
       <c r="H9" t="n">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="I9" t="n">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="J9" t="n">
-        <v>968</v>
+        <v>182</v>
       </c>
       <c r="K9" t="n">
-        <v>5824</v>
-      </c>
-      <c r="L9" t="n">
-        <v>9</v>
-      </c>
+        <v>2287</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
-        <v>5124</v>
+        <v>3518</v>
       </c>
       <c r="N9" t="n">
-        <v>536</v>
+        <v>21</v>
       </c>
       <c r="O9" t="n">
-        <v>1192</v>
-      </c>
-      <c r="P9" t="n">
-        <v>2</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="P9" t="inlineStr"/>
       <c r="Q9" t="n">
-        <v>1720</v>
-      </c>
-      <c r="R9" t="n">
-        <v>5</v>
-      </c>
+        <v>946</v>
+      </c>
+      <c r="R9" t="inlineStr"/>
       <c r="S9" t="n">
-        <v>1886</v>
-      </c>
-      <c r="T9" t="n">
-        <v>1</v>
-      </c>
+        <v>889</v>
+      </c>
+      <c r="T9" t="inlineStr"/>
       <c r="U9" t="n">
-        <v>1067</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1</v>
-      </c>
+        <v>1088</v>
+      </c>
+      <c r="V9" t="inlineStr"/>
       <c r="W9" t="n">
-        <v>451</v>
+        <v>374</v>
       </c>
       <c r="X9" t="n">
-        <v>977</v>
+        <v>182</v>
       </c>
       <c r="Y9" t="n">
-        <v>10948</v>
+        <v>5805</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>154</v>
+        <v>22</v>
       </c>
       <c r="C10" t="n">
-        <v>876</v>
+        <v>111</v>
       </c>
       <c r="D10" t="n">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="E10" t="n">
-        <v>1586</v>
-      </c>
-      <c r="F10" t="n">
-        <v>6</v>
-      </c>
-      <c r="G10" t="n">
-        <v>43</v>
-      </c>
+        <v>2276</v>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="J10" t="n">
-        <v>928</v>
+        <v>247</v>
       </c>
       <c r="K10" t="n">
-        <v>3440</v>
+        <v>2459</v>
       </c>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
-        <v>4820</v>
+        <v>4272</v>
       </c>
       <c r="N10" t="n">
-        <v>562</v>
+        <v>18</v>
       </c>
       <c r="O10" t="n">
-        <v>895</v>
+        <v>62</v>
       </c>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="n">
-        <v>1599</v>
+        <v>1364</v>
       </c>
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="n">
-        <v>1865</v>
+        <v>1025</v>
       </c>
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="n">
-        <v>901</v>
+        <v>1202</v>
       </c>
       <c r="V10" t="inlineStr"/>
       <c r="W10" t="n">
-        <v>455</v>
+        <v>392</v>
       </c>
       <c r="X10" t="n">
-        <v>928</v>
+        <v>247</v>
       </c>
       <c r="Y10" t="n">
-        <v>8260</v>
+        <v>6731</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>235</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1332</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
       <c r="D11" t="n">
-        <v>232</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1814</v>
-      </c>
-      <c r="F11" t="n">
-        <v>8</v>
-      </c>
-      <c r="G11" t="n">
-        <v>41</v>
-      </c>
-      <c r="H11" t="n">
-        <v>16</v>
-      </c>
-      <c r="I11" t="n">
-        <v>44</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="n">
-        <v>1470</v>
-      </c>
-      <c r="K11" t="n">
-        <v>4518</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>6819</v>
-      </c>
+      <c r="M11" t="inlineStr"/>
       <c r="N11" t="n">
-        <v>979</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1287</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="n">
-        <v>2318</v>
-      </c>
+      <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
-      <c r="S11" t="n">
-        <v>2709</v>
-      </c>
+      <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
-      <c r="U11" t="n">
-        <v>1116</v>
-      </c>
+      <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
-      <c r="W11" t="n">
-        <v>676</v>
-      </c>
+      <c r="W11" t="inlineStr"/>
       <c r="X11" t="n">
-        <v>1470</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>11337</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="Y11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>136</v>
-      </c>
-      <c r="C12" t="n">
-        <v>980</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
       <c r="D12" t="n">
-        <v>359</v>
-      </c>
-      <c r="E12" t="n">
-        <v>3060</v>
-      </c>
-      <c r="F12" t="n">
-        <v>6</v>
-      </c>
-      <c r="G12" t="n">
+        <v>54</v>
+      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="n">
         <v>56</v>
       </c>
-      <c r="H12" t="n">
-        <v>10</v>
-      </c>
-      <c r="I12" t="n">
-        <v>43</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1636</v>
-      </c>
-      <c r="K12" t="n">
-        <v>6402</v>
-      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>8866</v>
-      </c>
+      <c r="M12" t="inlineStr"/>
       <c r="N12" t="n">
-        <v>1125</v>
-      </c>
-      <c r="O12" t="n">
-        <v>2263</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="n">
-        <v>3246</v>
-      </c>
+      <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr"/>
-      <c r="S12" t="n">
-        <v>3245</v>
-      </c>
+      <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
-      <c r="U12" t="n">
-        <v>1555</v>
-      </c>
+      <c r="U12" t="inlineStr"/>
       <c r="V12" t="inlineStr"/>
-      <c r="W12" t="n">
-        <v>820</v>
-      </c>
+      <c r="W12" t="inlineStr"/>
       <c r="X12" t="n">
-        <v>1636</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>15268</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="Y12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2014年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>31</v>
-      </c>
-      <c r="C13" t="n">
-        <v>666</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
       <c r="D13" t="n">
-        <v>117</v>
-      </c>
-      <c r="E13" t="n">
-        <v>3114</v>
-      </c>
-      <c r="F13" t="n">
-        <v>2</v>
-      </c>
-      <c r="G13" t="n">
-        <v>66</v>
-      </c>
-      <c r="H13" t="n">
-        <v>3</v>
-      </c>
-      <c r="I13" t="n">
-        <v>33</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="n">
-        <v>633</v>
-      </c>
-      <c r="K13" t="n">
-        <v>5245</v>
-      </c>
-      <c r="L13" t="n">
-        <v>1047</v>
-      </c>
-      <c r="M13" t="n">
-        <v>9519</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
       <c r="N13" t="n">
-        <v>480</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1366</v>
-      </c>
-      <c r="P13" t="n">
-        <v>419</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>3231</v>
-      </c>
-      <c r="R13" t="n">
-        <v>337</v>
-      </c>
-      <c r="S13" t="n">
-        <v>2890</v>
-      </c>
-      <c r="T13" t="n">
-        <v>172</v>
-      </c>
-      <c r="U13" t="n">
-        <v>2509</v>
-      </c>
-      <c r="V13" t="n">
-        <v>119</v>
-      </c>
-      <c r="W13" t="n">
-        <v>889</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr"/>
+      <c r="T13" t="inlineStr"/>
+      <c r="U13" t="inlineStr"/>
+      <c r="V13" t="inlineStr"/>
+      <c r="W13" t="inlineStr"/>
       <c r="X13" t="n">
-        <v>1680</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>14764</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>5</v>
-      </c>
-      <c r="C14" t="n">
-        <v>102</v>
-      </c>
-      <c r="D14" t="n">
-        <v>96</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1632</v>
-      </c>
-      <c r="F14" t="n">
-        <v>2</v>
-      </c>
-      <c r="G14" t="n">
-        <v>11</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>14</v>
-      </c>
-      <c r="J14" t="n">
-        <v>155</v>
-      </c>
-      <c r="K14" t="n">
-        <v>1898</v>
-      </c>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>2948</v>
-      </c>
-      <c r="N14" t="n">
-        <v>51</v>
-      </c>
-      <c r="O14" t="n">
-        <v>139</v>
-      </c>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="n">
-        <v>828</v>
-      </c>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="n">
-        <v>870</v>
-      </c>
-      <c r="T14" t="inlineStr"/>
-      <c r="U14" t="n">
-        <v>859</v>
-      </c>
-      <c r="V14" t="inlineStr"/>
-      <c r="W14" t="n">
-        <v>307</v>
-      </c>
-      <c r="X14" t="n">
-        <v>155</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>4846</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>4</v>
-      </c>
-      <c r="C15" t="n">
-        <v>112</v>
-      </c>
-      <c r="D15" t="n">
-        <v>83</v>
-      </c>
-      <c r="E15" t="n">
-        <v>1633</v>
-      </c>
-      <c r="F15" t="n">
-        <v>1</v>
-      </c>
-      <c r="G15" t="n">
-        <v>4</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>11</v>
-      </c>
-      <c r="J15" t="n">
-        <v>101</v>
-      </c>
-      <c r="K15" t="n">
-        <v>1827</v>
-      </c>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>2895</v>
-      </c>
-      <c r="N15" t="n">
-        <v>12</v>
-      </c>
-      <c r="O15" t="n">
-        <v>67</v>
-      </c>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="n">
-        <v>783</v>
-      </c>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="n">
-        <v>771</v>
-      </c>
-      <c r="T15" t="inlineStr"/>
-      <c r="U15" t="n">
-        <v>875</v>
-      </c>
-      <c r="V15" t="inlineStr"/>
-      <c r="W15" t="n">
-        <v>321</v>
-      </c>
-      <c r="X15" t="n">
-        <v>101</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>4722</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>11</v>
-      </c>
-      <c r="C16" t="n">
-        <v>115</v>
-      </c>
-      <c r="D16" t="n">
-        <v>146</v>
-      </c>
-      <c r="E16" t="n">
-        <v>2078</v>
-      </c>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="n">
-        <v>4</v>
-      </c>
-      <c r="I16" t="n">
-        <v>13</v>
-      </c>
-      <c r="J16" t="n">
-        <v>182</v>
-      </c>
-      <c r="K16" t="n">
-        <v>2287</v>
-      </c>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>3518</v>
-      </c>
-      <c r="N16" t="n">
-        <v>21</v>
-      </c>
-      <c r="O16" t="n">
-        <v>81</v>
-      </c>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="n">
-        <v>946</v>
-      </c>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="n">
-        <v>889</v>
-      </c>
-      <c r="T16" t="inlineStr"/>
-      <c r="U16" t="n">
-        <v>1088</v>
-      </c>
-      <c r="V16" t="inlineStr"/>
-      <c r="W16" t="n">
-        <v>374</v>
-      </c>
-      <c r="X16" t="n">
-        <v>182</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>5805</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>22</v>
-      </c>
-      <c r="C17" t="n">
-        <v>111</v>
-      </c>
-      <c r="D17" t="n">
-        <v>206</v>
-      </c>
-      <c r="E17" t="n">
-        <v>2276</v>
-      </c>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>10</v>
-      </c>
-      <c r="J17" t="n">
-        <v>247</v>
-      </c>
-      <c r="K17" t="n">
-        <v>2459</v>
-      </c>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>4272</v>
-      </c>
-      <c r="N17" t="n">
-        <v>18</v>
-      </c>
-      <c r="O17" t="n">
-        <v>62</v>
-      </c>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="n">
-        <v>1364</v>
-      </c>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="n">
-        <v>1025</v>
-      </c>
-      <c r="T17" t="inlineStr"/>
-      <c r="U17" t="n">
-        <v>1202</v>
-      </c>
-      <c r="V17" t="inlineStr"/>
-      <c r="W17" t="n">
-        <v>392</v>
-      </c>
-      <c r="X17" t="n">
-        <v>247</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>6731</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>5</v>
-      </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="n">
-        <v>112</v>
-      </c>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>139</v>
-      </c>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
-        <v>22</v>
-      </c>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="inlineStr"/>
-      <c r="T18" t="inlineStr"/>
-      <c r="U18" t="inlineStr"/>
-      <c r="V18" t="inlineStr"/>
-      <c r="W18" t="inlineStr"/>
-      <c r="X18" t="n">
-        <v>139</v>
-      </c>
-      <c r="Y18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>1</v>
-      </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="n">
-        <v>54</v>
-      </c>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>56</v>
-      </c>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="n">
-        <v>1</v>
-      </c>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="inlineStr"/>
-      <c r="T19" t="inlineStr"/>
-      <c r="U19" t="inlineStr"/>
-      <c r="V19" t="inlineStr"/>
-      <c r="W19" t="inlineStr"/>
-      <c r="X19" t="n">
-        <v>56</v>
-      </c>
-      <c r="Y19" t="inlineStr"/>
+        <v>64</v>
+      </c>
+      <c r="Y13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
